--- a/US/data/CBS/NFIB/Compensation Plans.xlsx
+++ b/US/data/CBS/NFIB/Compensation Plans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{815CCF13-CE8C-43A0-9327-B41942AA9E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF5D4D97-8F64-4A71-9DAC-F47612560946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="470">
   <si>
     <t>Month/Year</t>
   </si>
@@ -49,39 +49,39 @@
     <t>1986/5/1</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>1986/6/1</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>1986/7/1</t>
   </si>
   <si>
     <t>1986/8/1</t>
   </si>
   <si>
+    <t>1986/9/1</t>
+  </si>
+  <si>
+    <t>1986/10/1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1986/12/1</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>1986/9/1</t>
-  </si>
-  <si>
-    <t>1986/10/1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1986/12/1</t>
-  </si>
-  <si>
     <t>1987/1/1</t>
   </si>
   <si>
@@ -142,33 +142,33 @@
     <t>1988/5/1</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1988/6/1</t>
+  </si>
+  <si>
+    <t>1988/7/1</t>
+  </si>
+  <si>
+    <t>1988/8/1</t>
+  </si>
+  <si>
+    <t>1988/9/1</t>
+  </si>
+  <si>
+    <t>1988/10/1</t>
+  </si>
+  <si>
+    <t>1988/11/1</t>
+  </si>
+  <si>
+    <t>1988/12/1</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
-    <t>1988/6/1</t>
-  </si>
-  <si>
-    <t>1988/7/1</t>
-  </si>
-  <si>
-    <t>1988/8/1</t>
-  </si>
-  <si>
-    <t>1988/9/1</t>
-  </si>
-  <si>
-    <t>1988/10/1</t>
-  </si>
-  <si>
-    <t>1988/11/1</t>
-  </si>
-  <si>
-    <t>1988/12/1</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>1989/1/1</t>
   </si>
   <si>
@@ -205,1207 +205,1231 @@
     <t>1989/12/1</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1990/1/1</t>
+  </si>
+  <si>
+    <t>1990/2/1</t>
+  </si>
+  <si>
+    <t>1990/3/1</t>
+  </si>
+  <si>
+    <t>1990/4/1</t>
+  </si>
+  <si>
+    <t>1990/5/1</t>
+  </si>
+  <si>
+    <t>1990/6/1</t>
+  </si>
+  <si>
+    <t>1990/7/1</t>
+  </si>
+  <si>
+    <t>1990/8/1</t>
+  </si>
+  <si>
+    <t>1990/9/1</t>
+  </si>
+  <si>
+    <t>1990/10/1</t>
+  </si>
+  <si>
+    <t>1990/11/1</t>
+  </si>
+  <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
+    <t>1991/6/1</t>
+  </si>
+  <si>
+    <t>1991/7/1</t>
+  </si>
+  <si>
+    <t>1991/8/1</t>
+  </si>
+  <si>
+    <t>1991/9/1</t>
+  </si>
+  <si>
+    <t>1991/10/1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1992/4/1</t>
+  </si>
+  <si>
+    <t>1992/5/1</t>
+  </si>
+  <si>
+    <t>1992/6/1</t>
+  </si>
+  <si>
+    <t>1992/7/1</t>
+  </si>
+  <si>
+    <t>1992/8/1</t>
+  </si>
+  <si>
+    <t>1992/9/1</t>
+  </si>
+  <si>
+    <t>1992/10/1</t>
+  </si>
+  <si>
+    <t>1992/11/1</t>
+  </si>
+  <si>
+    <t>1992/12/1</t>
+  </si>
+  <si>
+    <t>1993/1/1</t>
+  </si>
+  <si>
+    <t>1993/2/1</t>
+  </si>
+  <si>
+    <t>1993/3/1</t>
+  </si>
+  <si>
+    <t>1993/4/1</t>
+  </si>
+  <si>
+    <t>1993/5/1</t>
+  </si>
+  <si>
+    <t>1993/6/1</t>
+  </si>
+  <si>
+    <t>1993/7/1</t>
+  </si>
+  <si>
+    <t>1993/8/1</t>
+  </si>
+  <si>
+    <t>1993/9/1</t>
+  </si>
+  <si>
+    <t>1993/10/1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1993/11/1</t>
+  </si>
+  <si>
+    <t>1993/12/1</t>
+  </si>
+  <si>
+    <t>1994/1/1</t>
+  </si>
+  <si>
+    <t>1994/2/1</t>
+  </si>
+  <si>
+    <t>1994/3/1</t>
+  </si>
+  <si>
+    <t>1994/4/1</t>
+  </si>
+  <si>
+    <t>1994/5/1</t>
+  </si>
+  <si>
+    <t>1994/6/1</t>
+  </si>
+  <si>
+    <t>1994/7/1</t>
+  </si>
+  <si>
+    <t>1994/8/1</t>
+  </si>
+  <si>
+    <t>1994/9/1</t>
+  </si>
+  <si>
+    <t>1994/10/1</t>
+  </si>
+  <si>
+    <t>1994/11/1</t>
+  </si>
+  <si>
+    <t>1994/12/1</t>
+  </si>
+  <si>
+    <t>1995/1/1</t>
+  </si>
+  <si>
+    <t>1995/2/1</t>
+  </si>
+  <si>
+    <t>1995/3/1</t>
+  </si>
+  <si>
+    <t>1995/4/1</t>
+  </si>
+  <si>
+    <t>1995/5/1</t>
+  </si>
+  <si>
+    <t>1995/6/1</t>
+  </si>
+  <si>
+    <t>1995/7/1</t>
+  </si>
+  <si>
+    <t>1995/8/1</t>
+  </si>
+  <si>
+    <t>1995/9/1</t>
+  </si>
+  <si>
+    <t>1995/10/1</t>
+  </si>
+  <si>
+    <t>1995/11/1</t>
+  </si>
+  <si>
+    <t>1995/12/1</t>
+  </si>
+  <si>
+    <t>1996/1/1</t>
+  </si>
+  <si>
+    <t>1996/2/1</t>
+  </si>
+  <si>
+    <t>1996/3/1</t>
+  </si>
+  <si>
+    <t>1996/4/1</t>
+  </si>
+  <si>
+    <t>1996/5/1</t>
+  </si>
+  <si>
+    <t>1996/6/1</t>
+  </si>
+  <si>
+    <t>1996/7/1</t>
+  </si>
+  <si>
+    <t>1996/8/1</t>
+  </si>
+  <si>
+    <t>1996/9/1</t>
+  </si>
+  <si>
+    <t>1996/10/1</t>
+  </si>
+  <si>
+    <t>1996/11/1</t>
+  </si>
+  <si>
+    <t>1996/12/1</t>
+  </si>
+  <si>
+    <t>1997/1/1</t>
+  </si>
+  <si>
+    <t>1997/2/1</t>
+  </si>
+  <si>
+    <t>1997/3/1</t>
+  </si>
+  <si>
+    <t>1997/4/1</t>
+  </si>
+  <si>
+    <t>1997/5/1</t>
+  </si>
+  <si>
+    <t>1997/6/1</t>
+  </si>
+  <si>
+    <t>1997/7/1</t>
+  </si>
+  <si>
+    <t>1997/8/1</t>
+  </si>
+  <si>
+    <t>1997/9/1</t>
+  </si>
+  <si>
+    <t>1997/10/1</t>
+  </si>
+  <si>
+    <t>1997/11/1</t>
+  </si>
+  <si>
+    <t>1997/12/1</t>
+  </si>
+  <si>
+    <t>1998/1/1</t>
+  </si>
+  <si>
+    <t>1998/2/1</t>
+  </si>
+  <si>
+    <t>1998/3/1</t>
+  </si>
+  <si>
+    <t>1998/4/1</t>
+  </si>
+  <si>
+    <t>1998/5/1</t>
+  </si>
+  <si>
+    <t>1998/6/1</t>
+  </si>
+  <si>
+    <t>1998/7/1</t>
+  </si>
+  <si>
+    <t>1998/8/1</t>
+  </si>
+  <si>
+    <t>1998/9/1</t>
+  </si>
+  <si>
+    <t>1998/10/1</t>
+  </si>
+  <si>
+    <t>1998/11/1</t>
+  </si>
+  <si>
+    <t>1998/12/1</t>
+  </si>
+  <si>
+    <t>1999/1/1</t>
+  </si>
+  <si>
+    <t>1999/2/1</t>
+  </si>
+  <si>
+    <t>1999/3/1</t>
+  </si>
+  <si>
+    <t>1999/4/1</t>
+  </si>
+  <si>
+    <t>1999/5/1</t>
+  </si>
+  <si>
+    <t>1999/6/1</t>
+  </si>
+  <si>
+    <t>1999/7/1</t>
+  </si>
+  <si>
+    <t>1999/8/1</t>
+  </si>
+  <si>
+    <t>1999/9/1</t>
+  </si>
+  <si>
+    <t>1999/10/1</t>
+  </si>
+  <si>
+    <t>1999/11/1</t>
+  </si>
+  <si>
+    <t>1999/12/1</t>
+  </si>
+  <si>
+    <t>2000/1/1</t>
+  </si>
+  <si>
+    <t>2000/2/1</t>
+  </si>
+  <si>
+    <t>2000/3/1</t>
+  </si>
+  <si>
+    <t>2000/4/1</t>
+  </si>
+  <si>
+    <t>2000/5/1</t>
+  </si>
+  <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>2000/8/1</t>
+  </si>
+  <si>
+    <t>2000/9/1</t>
+  </si>
+  <si>
+    <t>2000/10/1</t>
+  </si>
+  <si>
+    <t>2000/11/1</t>
+  </si>
+  <si>
+    <t>2000/12/1</t>
+  </si>
+  <si>
+    <t>2001/1/1</t>
+  </si>
+  <si>
+    <t>2001/2/1</t>
+  </si>
+  <si>
+    <t>2001/3/1</t>
+  </si>
+  <si>
+    <t>2001/4/1</t>
+  </si>
+  <si>
+    <t>2001/5/1</t>
+  </si>
+  <si>
+    <t>2001/6/1</t>
+  </si>
+  <si>
+    <t>2001/7/1</t>
+  </si>
+  <si>
+    <t>2001/8/1</t>
+  </si>
+  <si>
+    <t>2001/9/1</t>
+  </si>
+  <si>
+    <t>2001/10/1</t>
+  </si>
+  <si>
+    <t>2001/11/1</t>
+  </si>
+  <si>
+    <t>2001/12/1</t>
+  </si>
+  <si>
+    <t>2002/1/1</t>
+  </si>
+  <si>
+    <t>2002/2/1</t>
+  </si>
+  <si>
+    <t>2002/3/1</t>
+  </si>
+  <si>
+    <t>2002/4/1</t>
+  </si>
+  <si>
+    <t>2002/5/1</t>
+  </si>
+  <si>
+    <t>2002/6/1</t>
+  </si>
+  <si>
+    <t>2002/7/1</t>
+  </si>
+  <si>
+    <t>2002/8/1</t>
+  </si>
+  <si>
+    <t>2002/9/1</t>
+  </si>
+  <si>
+    <t>2002/10/1</t>
+  </si>
+  <si>
+    <t>2002/11/1</t>
+  </si>
+  <si>
+    <t>2002/12/1</t>
+  </si>
+  <si>
+    <t>2003/1/1</t>
+  </si>
+  <si>
+    <t>2003/2/1</t>
+  </si>
+  <si>
+    <t>2003/3/1</t>
+  </si>
+  <si>
+    <t>2003/4/1</t>
+  </si>
+  <si>
+    <t>2003/5/1</t>
+  </si>
+  <si>
+    <t>2003/6/1</t>
+  </si>
+  <si>
+    <t>2003/7/1</t>
+  </si>
+  <si>
+    <t>2003/8/1</t>
+  </si>
+  <si>
+    <t>2003/9/1</t>
+  </si>
+  <si>
+    <t>2003/10/1</t>
+  </si>
+  <si>
+    <t>2003/11/1</t>
+  </si>
+  <si>
+    <t>2003/12/1</t>
+  </si>
+  <si>
+    <t>2004/1/1</t>
+  </si>
+  <si>
+    <t>2004/2/1</t>
+  </si>
+  <si>
+    <t>2004/3/1</t>
+  </si>
+  <si>
+    <t>2004/4/1</t>
+  </si>
+  <si>
+    <t>2004/5/1</t>
+  </si>
+  <si>
+    <t>2004/6/1</t>
+  </si>
+  <si>
+    <t>2004/7/1</t>
+  </si>
+  <si>
+    <t>2004/8/1</t>
+  </si>
+  <si>
+    <t>2004/9/1</t>
+  </si>
+  <si>
+    <t>2004/10/1</t>
+  </si>
+  <si>
+    <t>2004/11/1</t>
+  </si>
+  <si>
+    <t>2004/12/1</t>
+  </si>
+  <si>
+    <t>2005/1/1</t>
+  </si>
+  <si>
+    <t>2005/2/1</t>
+  </si>
+  <si>
+    <t>2005/3/1</t>
+  </si>
+  <si>
+    <t>2005/4/1</t>
+  </si>
+  <si>
+    <t>2005/5/1</t>
+  </si>
+  <si>
+    <t>2005/6/1</t>
+  </si>
+  <si>
+    <t>2005/7/1</t>
+  </si>
+  <si>
+    <t>2005/8/1</t>
+  </si>
+  <si>
+    <t>2005/9/1</t>
+  </si>
+  <si>
+    <t>2005/10/1</t>
+  </si>
+  <si>
+    <t>2005/11/1</t>
+  </si>
+  <si>
+    <t>2005/12/1</t>
+  </si>
+  <si>
+    <t>2006/1/1</t>
+  </si>
+  <si>
+    <t>2006/2/1</t>
+  </si>
+  <si>
+    <t>2006/3/1</t>
+  </si>
+  <si>
+    <t>2006/4/1</t>
+  </si>
+  <si>
+    <t>2006/5/1</t>
+  </si>
+  <si>
+    <t>2006/6/1</t>
+  </si>
+  <si>
+    <t>2006/7/1</t>
+  </si>
+  <si>
+    <t>2006/8/1</t>
+  </si>
+  <si>
+    <t>2006/9/1</t>
+  </si>
+  <si>
+    <t>2006/10/1</t>
+  </si>
+  <si>
+    <t>2006/11/1</t>
+  </si>
+  <si>
+    <t>2006/12/1</t>
+  </si>
+  <si>
+    <t>2007/1/1</t>
+  </si>
+  <si>
+    <t>2007/2/1</t>
+  </si>
+  <si>
+    <t>2007/3/1</t>
+  </si>
+  <si>
+    <t>2007/4/1</t>
+  </si>
+  <si>
+    <t>2007/5/1</t>
+  </si>
+  <si>
+    <t>2007/6/1</t>
+  </si>
+  <si>
+    <t>2007/7/1</t>
+  </si>
+  <si>
+    <t>2007/8/1</t>
+  </si>
+  <si>
+    <t>2007/9/1</t>
+  </si>
+  <si>
+    <t>2007/10/1</t>
+  </si>
+  <si>
+    <t>2007/11/1</t>
+  </si>
+  <si>
+    <t>2007/12/1</t>
+  </si>
+  <si>
+    <t>2008/1/1</t>
+  </si>
+  <si>
+    <t>2008/2/1</t>
+  </si>
+  <si>
+    <t>2008/3/1</t>
+  </si>
+  <si>
+    <t>2008/4/1</t>
+  </si>
+  <si>
+    <t>2008/5/1</t>
+  </si>
+  <si>
+    <t>2008/6/1</t>
+  </si>
+  <si>
+    <t>2008/7/1</t>
+  </si>
+  <si>
+    <t>2008/8/1</t>
+  </si>
+  <si>
+    <t>2008/9/1</t>
+  </si>
+  <si>
+    <t>2008/10/1</t>
+  </si>
+  <si>
+    <t>2008/11/1</t>
+  </si>
+  <si>
+    <t>2008/12/1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2009/1/1</t>
+  </si>
+  <si>
+    <t>2009/2/1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2009/3/1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2009/4/1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2009/5/1</t>
+  </si>
+  <si>
+    <t>2009/6/1</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
+    <t>2009/8/1</t>
+  </si>
+  <si>
+    <t>2009/9/1</t>
+  </si>
+  <si>
+    <t>2009/10/1</t>
+  </si>
+  <si>
+    <t>2009/11/1</t>
+  </si>
+  <si>
+    <t>2009/12/1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2010/1/1</t>
+  </si>
+  <si>
+    <t>2010/2/1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2010/3/1</t>
+  </si>
+  <si>
+    <t>2010/4/1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2010/5/1</t>
+  </si>
+  <si>
+    <t>2010/6/1</t>
+  </si>
+  <si>
+    <t>2010/7/1</t>
+  </si>
+  <si>
+    <t>2010/8/1</t>
+  </si>
+  <si>
+    <t>2010/9/1</t>
+  </si>
+  <si>
+    <t>2010/10/1</t>
+  </si>
+  <si>
+    <t>2010/11/1</t>
+  </si>
+  <si>
+    <t>2010/12/1</t>
+  </si>
+  <si>
+    <t>2011/1/1</t>
+  </si>
+  <si>
+    <t>2011/2/1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2011/3/1</t>
+  </si>
+  <si>
+    <t>2011/4/1</t>
+  </si>
+  <si>
+    <t>2011/5/1</t>
+  </si>
+  <si>
+    <t>2011/6/1</t>
+  </si>
+  <si>
+    <t>2011/7/1</t>
+  </si>
+  <si>
+    <t>2011/8/1</t>
+  </si>
+  <si>
+    <t>2011/9/1</t>
+  </si>
+  <si>
+    <t>2011/10/1</t>
+  </si>
+  <si>
+    <t>2011/11/1</t>
+  </si>
+  <si>
+    <t>2011/12/1</t>
+  </si>
+  <si>
+    <t>2012/1/1</t>
+  </si>
+  <si>
+    <t>2012/2/1</t>
+  </si>
+  <si>
+    <t>2012/3/1</t>
+  </si>
+  <si>
+    <t>2012/4/1</t>
+  </si>
+  <si>
+    <t>2012/5/1</t>
+  </si>
+  <si>
+    <t>2012/6/1</t>
+  </si>
+  <si>
+    <t>2012/7/1</t>
+  </si>
+  <si>
+    <t>2012/8/1</t>
+  </si>
+  <si>
+    <t>2012/9/1</t>
+  </si>
+  <si>
+    <t>2012/10/1</t>
+  </si>
+  <si>
+    <t>2012/11/1</t>
+  </si>
+  <si>
+    <t>2012/12/1</t>
+  </si>
+  <si>
+    <t>2013/1/1</t>
+  </si>
+  <si>
+    <t>2013/2/1</t>
+  </si>
+  <si>
+    <t>2013/3/1</t>
+  </si>
+  <si>
+    <t>2013/4/1</t>
+  </si>
+  <si>
+    <t>2013/5/1</t>
+  </si>
+  <si>
+    <t>2013/6/1</t>
+  </si>
+  <si>
+    <t>2013/7/1</t>
+  </si>
+  <si>
+    <t>2013/8/1</t>
+  </si>
+  <si>
+    <t>2013/9/1</t>
+  </si>
+  <si>
+    <t>2013/10/1</t>
+  </si>
+  <si>
+    <t>2013/11/1</t>
+  </si>
+  <si>
+    <t>2013/12/1</t>
+  </si>
+  <si>
+    <t>2014/1/1</t>
+  </si>
+  <si>
+    <t>2014/2/1</t>
+  </si>
+  <si>
+    <t>2014/3/1</t>
+  </si>
+  <si>
+    <t>2014/4/1</t>
+  </si>
+  <si>
+    <t>2014/5/1</t>
+  </si>
+  <si>
+    <t>2014/6/1</t>
+  </si>
+  <si>
+    <t>2014/7/1</t>
+  </si>
+  <si>
+    <t>2014/8/1</t>
+  </si>
+  <si>
+    <t>2014/9/1</t>
+  </si>
+  <si>
+    <t>2014/10/1</t>
+  </si>
+  <si>
+    <t>2014/11/1</t>
+  </si>
+  <si>
+    <t>2014/12/1</t>
+  </si>
+  <si>
+    <t>2015/1/1</t>
+  </si>
+  <si>
+    <t>2015/2/1</t>
+  </si>
+  <si>
+    <t>2015/3/1</t>
+  </si>
+  <si>
+    <t>2015/4/1</t>
+  </si>
+  <si>
+    <t>2015/5/1</t>
+  </si>
+  <si>
+    <t>2015/6/1</t>
+  </si>
+  <si>
+    <t>2015/7/1</t>
+  </si>
+  <si>
+    <t>2015/8/1</t>
+  </si>
+  <si>
+    <t>2015/9/1</t>
+  </si>
+  <si>
+    <t>2015/10/1</t>
+  </si>
+  <si>
+    <t>2015/11/1</t>
+  </si>
+  <si>
+    <t>2015/12/1</t>
+  </si>
+  <si>
+    <t>2016/1/1</t>
+  </si>
+  <si>
+    <t>2016/2/1</t>
+  </si>
+  <si>
+    <t>2016/3/1</t>
+  </si>
+  <si>
+    <t>2016/4/1</t>
+  </si>
+  <si>
+    <t>2016/5/1</t>
+  </si>
+  <si>
+    <t>2016/6/1</t>
+  </si>
+  <si>
+    <t>2016/7/1</t>
+  </si>
+  <si>
+    <t>2016/8/1</t>
+  </si>
+  <si>
+    <t>2016/9/1</t>
+  </si>
+  <si>
+    <t>2016/10/1</t>
+  </si>
+  <si>
+    <t>2016/11/1</t>
+  </si>
+  <si>
+    <t>2016/12/1</t>
+  </si>
+  <si>
+    <t>2017/1/1</t>
+  </si>
+  <si>
+    <t>2017/2/1</t>
+  </si>
+  <si>
+    <t>2017/3/1</t>
+  </si>
+  <si>
+    <t>2017/4/1</t>
+  </si>
+  <si>
+    <t>2017/5/1</t>
+  </si>
+  <si>
+    <t>2017/6/1</t>
+  </si>
+  <si>
+    <t>2017/7/1</t>
+  </si>
+  <si>
+    <t>2017/8/1</t>
+  </si>
+  <si>
+    <t>2017/9/1</t>
+  </si>
+  <si>
+    <t>2017/10/1</t>
+  </si>
+  <si>
+    <t>2017/11/1</t>
+  </si>
+  <si>
+    <t>2017/12/1</t>
+  </si>
+  <si>
+    <t>2018/1/1</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2018/2/1</t>
+  </si>
+  <si>
+    <t>2018/3/1</t>
+  </si>
+  <si>
+    <t>2018/4/1</t>
+  </si>
+  <si>
+    <t>2018/5/1</t>
+  </si>
+  <si>
+    <t>2018/6/1</t>
+  </si>
+  <si>
+    <t>2018/7/1</t>
+  </si>
+  <si>
+    <t>2018/8/1</t>
+  </si>
+  <si>
+    <t>2018/9/1</t>
+  </si>
+  <si>
+    <t>2018/10/1</t>
+  </si>
+  <si>
+    <t>2018/11/1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2018/12/1</t>
+  </si>
+  <si>
+    <t>2019/1/1</t>
+  </si>
+  <si>
+    <t>2019/2/1</t>
+  </si>
+  <si>
+    <t>2019/3/1</t>
+  </si>
+  <si>
+    <t>2019/4/1</t>
+  </si>
+  <si>
+    <t>2019/5/1</t>
+  </si>
+  <si>
+    <t>2019/6/1</t>
+  </si>
+  <si>
+    <t>2019/7/1</t>
+  </si>
+  <si>
+    <t>2019/8/1</t>
+  </si>
+  <si>
+    <t>2019/9/1</t>
+  </si>
+  <si>
+    <t>2019/10/1</t>
+  </si>
+  <si>
+    <t>2019/11/1</t>
+  </si>
+  <si>
+    <t>2019/12/1</t>
+  </si>
+  <si>
+    <t>2020/1/1</t>
+  </si>
+  <si>
+    <t>2020/2/1</t>
+  </si>
+  <si>
+    <t>2020/3/1</t>
+  </si>
+  <si>
+    <t>2020/4/1</t>
+  </si>
+  <si>
+    <t>2020/5/1</t>
+  </si>
+  <si>
+    <t>2020/6/1</t>
+  </si>
+  <si>
+    <t>2020/7/1</t>
+  </si>
+  <si>
+    <t>2020/8/1</t>
+  </si>
+  <si>
+    <t>2020/9/1</t>
+  </si>
+  <si>
+    <t>2020/10/1</t>
+  </si>
+  <si>
+    <t>2020/11/1</t>
+  </si>
+  <si>
+    <t>2020/12/1</t>
+  </si>
+  <si>
+    <t>2021/1/1</t>
+  </si>
+  <si>
+    <t>2021/2/1</t>
+  </si>
+  <si>
+    <t>2021/3/1</t>
+  </si>
+  <si>
+    <t>2021/4/1</t>
+  </si>
+  <si>
+    <t>2021/5/1</t>
+  </si>
+  <si>
+    <t>2021/6/1</t>
+  </si>
+  <si>
+    <t>2021/7/1</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
-    <t>1990/1/1</t>
-  </si>
-  <si>
-    <t>1990/2/1</t>
-  </si>
-  <si>
-    <t>1990/3/1</t>
-  </si>
-  <si>
-    <t>1990/4/1</t>
-  </si>
-  <si>
-    <t>1990/5/1</t>
-  </si>
-  <si>
-    <t>1990/6/1</t>
-  </si>
-  <si>
-    <t>1990/7/1</t>
-  </si>
-  <si>
-    <t>1990/8/1</t>
-  </si>
-  <si>
-    <t>1990/9/1</t>
-  </si>
-  <si>
-    <t>1990/10/1</t>
-  </si>
-  <si>
-    <t>1990/11/1</t>
-  </si>
-  <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
-    <t>1991/6/1</t>
-  </si>
-  <si>
-    <t>1991/7/1</t>
-  </si>
-  <si>
-    <t>1991/8/1</t>
-  </si>
-  <si>
-    <t>1991/9/1</t>
-  </si>
-  <si>
-    <t>1991/10/1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1992/4/1</t>
-  </si>
-  <si>
-    <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>1992/6/1</t>
-  </si>
-  <si>
-    <t>1992/7/1</t>
-  </si>
-  <si>
-    <t>1992/8/1</t>
-  </si>
-  <si>
-    <t>1992/9/1</t>
-  </si>
-  <si>
-    <t>1992/10/1</t>
-  </si>
-  <si>
-    <t>1992/11/1</t>
-  </si>
-  <si>
-    <t>1992/12/1</t>
-  </si>
-  <si>
-    <t>1993/1/1</t>
-  </si>
-  <si>
-    <t>1993/2/1</t>
-  </si>
-  <si>
-    <t>1993/3/1</t>
-  </si>
-  <si>
-    <t>1993/4/1</t>
-  </si>
-  <si>
-    <t>1993/5/1</t>
-  </si>
-  <si>
-    <t>1993/6/1</t>
-  </si>
-  <si>
-    <t>1993/7/1</t>
-  </si>
-  <si>
-    <t>1993/8/1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1993/9/1</t>
-  </si>
-  <si>
-    <t>1993/10/1</t>
-  </si>
-  <si>
-    <t>1993/11/1</t>
-  </si>
-  <si>
-    <t>1993/12/1</t>
-  </si>
-  <si>
-    <t>1994/1/1</t>
-  </si>
-  <si>
-    <t>1994/2/1</t>
-  </si>
-  <si>
-    <t>1994/3/1</t>
-  </si>
-  <si>
-    <t>1994/4/1</t>
-  </si>
-  <si>
-    <t>1994/5/1</t>
-  </si>
-  <si>
-    <t>1994/6/1</t>
-  </si>
-  <si>
-    <t>1994/7/1</t>
-  </si>
-  <si>
-    <t>1994/8/1</t>
-  </si>
-  <si>
-    <t>1994/9/1</t>
-  </si>
-  <si>
-    <t>1994/10/1</t>
-  </si>
-  <si>
-    <t>1994/11/1</t>
-  </si>
-  <si>
-    <t>1994/12/1</t>
-  </si>
-  <si>
-    <t>1995/1/1</t>
-  </si>
-  <si>
-    <t>1995/2/1</t>
-  </si>
-  <si>
-    <t>1995/3/1</t>
-  </si>
-  <si>
-    <t>1995/4/1</t>
-  </si>
-  <si>
-    <t>1995/5/1</t>
-  </si>
-  <si>
-    <t>1995/6/1</t>
-  </si>
-  <si>
-    <t>1995/7/1</t>
-  </si>
-  <si>
-    <t>1995/8/1</t>
-  </si>
-  <si>
-    <t>1995/9/1</t>
-  </si>
-  <si>
-    <t>1995/10/1</t>
-  </si>
-  <si>
-    <t>1995/11/1</t>
-  </si>
-  <si>
-    <t>1995/12/1</t>
-  </si>
-  <si>
-    <t>1996/1/1</t>
-  </si>
-  <si>
-    <t>1996/2/1</t>
-  </si>
-  <si>
-    <t>1996/3/1</t>
-  </si>
-  <si>
-    <t>1996/4/1</t>
-  </si>
-  <si>
-    <t>1996/5/1</t>
-  </si>
-  <si>
-    <t>1996/6/1</t>
-  </si>
-  <si>
-    <t>1996/7/1</t>
-  </si>
-  <si>
-    <t>1996/8/1</t>
-  </si>
-  <si>
-    <t>1996/9/1</t>
-  </si>
-  <si>
-    <t>1996/10/1</t>
-  </si>
-  <si>
-    <t>1996/11/1</t>
-  </si>
-  <si>
-    <t>1996/12/1</t>
-  </si>
-  <si>
-    <t>1997/1/1</t>
-  </si>
-  <si>
-    <t>1997/2/1</t>
-  </si>
-  <si>
-    <t>1997/3/1</t>
-  </si>
-  <si>
-    <t>1997/4/1</t>
-  </si>
-  <si>
-    <t>1997/5/1</t>
-  </si>
-  <si>
-    <t>1997/6/1</t>
-  </si>
-  <si>
-    <t>1997/7/1</t>
-  </si>
-  <si>
-    <t>1997/8/1</t>
-  </si>
-  <si>
-    <t>1997/9/1</t>
-  </si>
-  <si>
-    <t>1997/10/1</t>
-  </si>
-  <si>
-    <t>1997/11/1</t>
-  </si>
-  <si>
-    <t>1997/12/1</t>
-  </si>
-  <si>
-    <t>1998/1/1</t>
-  </si>
-  <si>
-    <t>1998/2/1</t>
-  </si>
-  <si>
-    <t>1998/3/1</t>
-  </si>
-  <si>
-    <t>1998/4/1</t>
-  </si>
-  <si>
-    <t>1998/5/1</t>
-  </si>
-  <si>
-    <t>1998/6/1</t>
-  </si>
-  <si>
-    <t>1998/7/1</t>
-  </si>
-  <si>
-    <t>1998/8/1</t>
-  </si>
-  <si>
-    <t>1998/9/1</t>
-  </si>
-  <si>
-    <t>1998/10/1</t>
-  </si>
-  <si>
-    <t>1998/11/1</t>
-  </si>
-  <si>
-    <t>1998/12/1</t>
-  </si>
-  <si>
-    <t>1999/1/1</t>
-  </si>
-  <si>
-    <t>1999/2/1</t>
-  </si>
-  <si>
-    <t>1999/3/1</t>
-  </si>
-  <si>
-    <t>1999/4/1</t>
-  </si>
-  <si>
-    <t>1999/5/1</t>
-  </si>
-  <si>
-    <t>1999/6/1</t>
-  </si>
-  <si>
-    <t>1999/7/1</t>
-  </si>
-  <si>
-    <t>1999/8/1</t>
-  </si>
-  <si>
-    <t>1999/9/1</t>
-  </si>
-  <si>
-    <t>1999/10/1</t>
-  </si>
-  <si>
-    <t>1999/11/1</t>
-  </si>
-  <si>
-    <t>1999/12/1</t>
-  </si>
-  <si>
-    <t>2000/1/1</t>
-  </si>
-  <si>
-    <t>2000/2/1</t>
-  </si>
-  <si>
-    <t>2000/3/1</t>
-  </si>
-  <si>
-    <t>2000/4/1</t>
-  </si>
-  <si>
-    <t>2000/5/1</t>
-  </si>
-  <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>2000/8/1</t>
-  </si>
-  <si>
-    <t>2000/9/1</t>
-  </si>
-  <si>
-    <t>2000/10/1</t>
-  </si>
-  <si>
-    <t>2000/11/1</t>
-  </si>
-  <si>
-    <t>2000/12/1</t>
-  </si>
-  <si>
-    <t>2001/1/1</t>
-  </si>
-  <si>
-    <t>2001/2/1</t>
-  </si>
-  <si>
-    <t>2001/3/1</t>
-  </si>
-  <si>
-    <t>2001/4/1</t>
-  </si>
-  <si>
-    <t>2001/5/1</t>
-  </si>
-  <si>
-    <t>2001/6/1</t>
-  </si>
-  <si>
-    <t>2001/7/1</t>
-  </si>
-  <si>
-    <t>2001/8/1</t>
-  </si>
-  <si>
-    <t>2001/9/1</t>
-  </si>
-  <si>
-    <t>2001/10/1</t>
-  </si>
-  <si>
-    <t>2001/11/1</t>
-  </si>
-  <si>
-    <t>2001/12/1</t>
-  </si>
-  <si>
-    <t>2002/1/1</t>
-  </si>
-  <si>
-    <t>2002/2/1</t>
-  </si>
-  <si>
-    <t>2002/3/1</t>
-  </si>
-  <si>
-    <t>2002/4/1</t>
-  </si>
-  <si>
-    <t>2002/5/1</t>
-  </si>
-  <si>
-    <t>2002/6/1</t>
-  </si>
-  <si>
-    <t>2002/7/1</t>
-  </si>
-  <si>
-    <t>2002/8/1</t>
-  </si>
-  <si>
-    <t>2002/9/1</t>
-  </si>
-  <si>
-    <t>2002/10/1</t>
-  </si>
-  <si>
-    <t>2002/11/1</t>
-  </si>
-  <si>
-    <t>2002/12/1</t>
-  </si>
-  <si>
-    <t>2003/1/1</t>
-  </si>
-  <si>
-    <t>2003/2/1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2003/3/1</t>
-  </si>
-  <si>
-    <t>2003/4/1</t>
-  </si>
-  <si>
-    <t>2003/5/1</t>
-  </si>
-  <si>
-    <t>2003/6/1</t>
-  </si>
-  <si>
-    <t>2003/7/1</t>
-  </si>
-  <si>
-    <t>2003/8/1</t>
-  </si>
-  <si>
-    <t>2003/9/1</t>
-  </si>
-  <si>
-    <t>2003/10/1</t>
-  </si>
-  <si>
-    <t>2003/11/1</t>
-  </si>
-  <si>
-    <t>2003/12/1</t>
-  </si>
-  <si>
-    <t>2004/1/1</t>
-  </si>
-  <si>
-    <t>2004/2/1</t>
-  </si>
-  <si>
-    <t>2004/3/1</t>
-  </si>
-  <si>
-    <t>2004/4/1</t>
-  </si>
-  <si>
-    <t>2004/5/1</t>
-  </si>
-  <si>
-    <t>2004/6/1</t>
-  </si>
-  <si>
-    <t>2004/7/1</t>
-  </si>
-  <si>
-    <t>2004/8/1</t>
-  </si>
-  <si>
-    <t>2004/9/1</t>
-  </si>
-  <si>
-    <t>2004/10/1</t>
-  </si>
-  <si>
-    <t>2004/11/1</t>
-  </si>
-  <si>
-    <t>2004/12/1</t>
-  </si>
-  <si>
-    <t>2005/1/1</t>
-  </si>
-  <si>
-    <t>2005/2/1</t>
-  </si>
-  <si>
-    <t>2005/3/1</t>
-  </si>
-  <si>
-    <t>2005/4/1</t>
-  </si>
-  <si>
-    <t>2005/5/1</t>
-  </si>
-  <si>
-    <t>2005/6/1</t>
-  </si>
-  <si>
-    <t>2005/7/1</t>
-  </si>
-  <si>
-    <t>2005/8/1</t>
-  </si>
-  <si>
-    <t>2005/9/1</t>
-  </si>
-  <si>
-    <t>2005/10/1</t>
-  </si>
-  <si>
-    <t>2005/11/1</t>
-  </si>
-  <si>
-    <t>2005/12/1</t>
-  </si>
-  <si>
-    <t>2006/1/1</t>
-  </si>
-  <si>
-    <t>2006/2/1</t>
-  </si>
-  <si>
-    <t>2006/3/1</t>
-  </si>
-  <si>
-    <t>2006/4/1</t>
-  </si>
-  <si>
-    <t>2006/5/1</t>
-  </si>
-  <si>
-    <t>2006/6/1</t>
-  </si>
-  <si>
-    <t>2006/7/1</t>
-  </si>
-  <si>
-    <t>2006/8/1</t>
-  </si>
-  <si>
-    <t>2006/9/1</t>
-  </si>
-  <si>
-    <t>2006/10/1</t>
-  </si>
-  <si>
-    <t>2006/11/1</t>
-  </si>
-  <si>
-    <t>2006/12/1</t>
-  </si>
-  <si>
-    <t>2007/1/1</t>
-  </si>
-  <si>
-    <t>2007/2/1</t>
-  </si>
-  <si>
-    <t>2007/3/1</t>
-  </si>
-  <si>
-    <t>2007/4/1</t>
-  </si>
-  <si>
-    <t>2007/5/1</t>
-  </si>
-  <si>
-    <t>2007/6/1</t>
-  </si>
-  <si>
-    <t>2007/7/1</t>
-  </si>
-  <si>
-    <t>2007/8/1</t>
-  </si>
-  <si>
-    <t>2007/9/1</t>
-  </si>
-  <si>
-    <t>2007/10/1</t>
-  </si>
-  <si>
-    <t>2007/11/1</t>
-  </si>
-  <si>
-    <t>2007/12/1</t>
-  </si>
-  <si>
-    <t>2008/1/1</t>
-  </si>
-  <si>
-    <t>2008/2/1</t>
-  </si>
-  <si>
-    <t>2008/3/1</t>
-  </si>
-  <si>
-    <t>2008/4/1</t>
-  </si>
-  <si>
-    <t>2008/5/1</t>
-  </si>
-  <si>
-    <t>2008/6/1</t>
-  </si>
-  <si>
-    <t>2008/7/1</t>
-  </si>
-  <si>
-    <t>2008/8/1</t>
-  </si>
-  <si>
-    <t>2008/9/1</t>
-  </si>
-  <si>
-    <t>2008/10/1</t>
-  </si>
-  <si>
-    <t>2008/11/1</t>
-  </si>
-  <si>
-    <t>2008/12/1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2009/1/1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2009/2/1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2009/3/1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2009/4/1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2009/5/1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2009/6/1</t>
-  </si>
-  <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
-    <t>2009/8/1</t>
-  </si>
-  <si>
-    <t>2009/9/1</t>
-  </si>
-  <si>
-    <t>2009/10/1</t>
-  </si>
-  <si>
-    <t>2009/11/1</t>
-  </si>
-  <si>
-    <t>2009/12/1</t>
-  </si>
-  <si>
-    <t>2010/1/1</t>
-  </si>
-  <si>
-    <t>2010/2/1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2010/3/1</t>
-  </si>
-  <si>
-    <t>2010/4/1</t>
-  </si>
-  <si>
-    <t>2010/5/1</t>
-  </si>
-  <si>
-    <t>2010/6/1</t>
-  </si>
-  <si>
-    <t>2010/7/1</t>
-  </si>
-  <si>
-    <t>2010/8/1</t>
-  </si>
-  <si>
-    <t>2010/9/1</t>
-  </si>
-  <si>
-    <t>2010/10/1</t>
-  </si>
-  <si>
-    <t>2010/11/1</t>
-  </si>
-  <si>
-    <t>2010/12/1</t>
-  </si>
-  <si>
-    <t>2011/1/1</t>
-  </si>
-  <si>
-    <t>2011/2/1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2011/3/1</t>
-  </si>
-  <si>
-    <t>2011/4/1</t>
-  </si>
-  <si>
-    <t>2011/5/1</t>
-  </si>
-  <si>
-    <t>2011/6/1</t>
-  </si>
-  <si>
-    <t>2011/7/1</t>
-  </si>
-  <si>
-    <t>2011/8/1</t>
-  </si>
-  <si>
-    <t>2011/9/1</t>
-  </si>
-  <si>
-    <t>2011/10/1</t>
-  </si>
-  <si>
-    <t>2011/11/1</t>
-  </si>
-  <si>
-    <t>2011/12/1</t>
-  </si>
-  <si>
-    <t>2012/1/1</t>
-  </si>
-  <si>
-    <t>2012/2/1</t>
-  </si>
-  <si>
-    <t>2012/3/1</t>
-  </si>
-  <si>
-    <t>2012/4/1</t>
-  </si>
-  <si>
-    <t>2012/5/1</t>
-  </si>
-  <si>
-    <t>2012/6/1</t>
-  </si>
-  <si>
-    <t>2012/7/1</t>
-  </si>
-  <si>
-    <t>2012/8/1</t>
-  </si>
-  <si>
-    <t>2012/9/1</t>
-  </si>
-  <si>
-    <t>2012/10/1</t>
-  </si>
-  <si>
-    <t>2012/11/1</t>
-  </si>
-  <si>
-    <t>2012/12/1</t>
-  </si>
-  <si>
-    <t>2013/1/1</t>
-  </si>
-  <si>
-    <t>2013/2/1</t>
-  </si>
-  <si>
-    <t>2013/3/1</t>
-  </si>
-  <si>
-    <t>2013/4/1</t>
-  </si>
-  <si>
-    <t>2013/5/1</t>
-  </si>
-  <si>
-    <t>2013/6/1</t>
-  </si>
-  <si>
-    <t>2013/7/1</t>
-  </si>
-  <si>
-    <t>2013/8/1</t>
-  </si>
-  <si>
-    <t>2013/9/1</t>
-  </si>
-  <si>
-    <t>2013/10/1</t>
-  </si>
-  <si>
-    <t>2013/11/1</t>
-  </si>
-  <si>
-    <t>2013/12/1</t>
-  </si>
-  <si>
-    <t>2014/1/1</t>
-  </si>
-  <si>
-    <t>2014/2/1</t>
-  </si>
-  <si>
-    <t>2014/3/1</t>
-  </si>
-  <si>
-    <t>2014/4/1</t>
-  </si>
-  <si>
-    <t>2014/5/1</t>
-  </si>
-  <si>
-    <t>2014/6/1</t>
-  </si>
-  <si>
-    <t>2014/7/1</t>
-  </si>
-  <si>
-    <t>2014/8/1</t>
-  </si>
-  <si>
-    <t>2014/9/1</t>
-  </si>
-  <si>
-    <t>2014/10/1</t>
-  </si>
-  <si>
-    <t>2014/11/1</t>
-  </si>
-  <si>
-    <t>2014/12/1</t>
-  </si>
-  <si>
-    <t>2015/1/1</t>
-  </si>
-  <si>
-    <t>2015/2/1</t>
-  </si>
-  <si>
-    <t>2015/3/1</t>
-  </si>
-  <si>
-    <t>2015/4/1</t>
-  </si>
-  <si>
-    <t>2015/5/1</t>
-  </si>
-  <si>
-    <t>2015/6/1</t>
-  </si>
-  <si>
-    <t>2015/7/1</t>
-  </si>
-  <si>
-    <t>2015/8/1</t>
-  </si>
-  <si>
-    <t>2015/9/1</t>
-  </si>
-  <si>
-    <t>2015/10/1</t>
-  </si>
-  <si>
-    <t>2015/11/1</t>
-  </si>
-  <si>
-    <t>2015/12/1</t>
-  </si>
-  <si>
-    <t>2016/1/1</t>
-  </si>
-  <si>
-    <t>2016/2/1</t>
-  </si>
-  <si>
-    <t>2016/3/1</t>
-  </si>
-  <si>
-    <t>2016/4/1</t>
-  </si>
-  <si>
-    <t>2016/5/1</t>
-  </si>
-  <si>
-    <t>2016/6/1</t>
-  </si>
-  <si>
-    <t>2016/7/1</t>
-  </si>
-  <si>
-    <t>2016/8/1</t>
-  </si>
-  <si>
-    <t>2016/9/1</t>
-  </si>
-  <si>
-    <t>2016/10/1</t>
-  </si>
-  <si>
-    <t>2016/11/1</t>
-  </si>
-  <si>
-    <t>2016/12/1</t>
-  </si>
-  <si>
-    <t>2017/1/1</t>
-  </si>
-  <si>
-    <t>2017/2/1</t>
-  </si>
-  <si>
-    <t>2017/3/1</t>
-  </si>
-  <si>
-    <t>2017/4/1</t>
-  </si>
-  <si>
-    <t>2017/5/1</t>
-  </si>
-  <si>
-    <t>2017/6/1</t>
-  </si>
-  <si>
-    <t>2017/7/1</t>
-  </si>
-  <si>
-    <t>2017/8/1</t>
-  </si>
-  <si>
-    <t>2017/9/1</t>
-  </si>
-  <si>
-    <t>2017/10/1</t>
-  </si>
-  <si>
-    <t>2017/11/1</t>
-  </si>
-  <si>
-    <t>2017/12/1</t>
-  </si>
-  <si>
-    <t>2018/1/1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2018/2/1</t>
-  </si>
-  <si>
-    <t>2018/3/1</t>
-  </si>
-  <si>
-    <t>2018/4/1</t>
-  </si>
-  <si>
-    <t>2018/5/1</t>
-  </si>
-  <si>
-    <t>2018/6/1</t>
-  </si>
-  <si>
-    <t>2018/7/1</t>
-  </si>
-  <si>
-    <t>2018/8/1</t>
-  </si>
-  <si>
-    <t>2018/9/1</t>
-  </si>
-  <si>
-    <t>2018/10/1</t>
-  </si>
-  <si>
-    <t>2018/11/1</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2018/12/1</t>
-  </si>
-  <si>
-    <t>2019/1/1</t>
-  </si>
-  <si>
-    <t>2019/2/1</t>
-  </si>
-  <si>
-    <t>2019/3/1</t>
-  </si>
-  <si>
-    <t>2019/4/1</t>
-  </si>
-  <si>
-    <t>2019/5/1</t>
-  </si>
-  <si>
-    <t>2019/6/1</t>
-  </si>
-  <si>
-    <t>2019/7/1</t>
-  </si>
-  <si>
-    <t>2019/8/1</t>
-  </si>
-  <si>
-    <t>2019/9/1</t>
-  </si>
-  <si>
-    <t>2019/10/1</t>
-  </si>
-  <si>
-    <t>2019/11/1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2019/12/1</t>
-  </si>
-  <si>
-    <t>2020/1/1</t>
-  </si>
-  <si>
-    <t>2020/2/1</t>
-  </si>
-  <si>
-    <t>2020/3/1</t>
-  </si>
-  <si>
-    <t>2020/4/1</t>
-  </si>
-  <si>
-    <t>2020/5/1</t>
-  </si>
-  <si>
-    <t>2020/6/1</t>
-  </si>
-  <si>
-    <t>2020/7/1</t>
-  </si>
-  <si>
-    <t>2020/8/1</t>
-  </si>
-  <si>
-    <t>2020/9/1</t>
-  </si>
-  <si>
-    <t>2020/10/1</t>
-  </si>
-  <si>
-    <t>2020/11/1</t>
-  </si>
-  <si>
-    <t>2020/12/1</t>
-  </si>
-  <si>
-    <t>2021/1/1</t>
-  </si>
-  <si>
-    <t>2021/2/1</t>
-  </si>
-  <si>
-    <t>2021/3/1</t>
-  </si>
-  <si>
-    <t>2021/4/1</t>
-  </si>
-  <si>
-    <t>2021/5/1</t>
-  </si>
-  <si>
-    <t>2021/6/1</t>
-  </si>
-  <si>
-    <t>2021/7/1</t>
-  </si>
-  <si>
     <t>2021/8/1</t>
   </si>
   <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>2021/10/1</t>
   </si>
   <si>
-    <t>30</t>
+    <t>2021/11/1</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>2021/12/1</t>
   </si>
   <si>
-    <t>33</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1862,15 +1886,15 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,12 +1910,12 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1899,26 +1923,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1958,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1974,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1982,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +2006,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2038,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2030,7 +2054,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2102,7 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2174,7 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +2198,7 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2214,7 +2238,7 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2246,7 +2270,7 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2270,7 +2294,7 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2318,7 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2302,7 +2326,7 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2318,7 +2342,7 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2350,7 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2342,7 +2366,7 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2382,7 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2390,7 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2398,7 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,12 +2430,12 @@
         <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
         <v>84</v>
@@ -2419,87 +2443,87 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -2507,58 +2531,58 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,68 +2598,68 @@
         <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -2643,63 +2667,63 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -2707,7 +2731,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -2715,7 +2739,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -2723,55 +2747,55 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -2779,15 +2803,15 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -2795,15 +2819,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2811,23 +2835,23 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -2835,23 +2859,23 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B130" t="s">
         <v>26</v>
@@ -2859,47 +2883,47 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
         <v>26</v>
@@ -2907,23 +2931,23 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -2931,7 +2955,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B140" t="s">
         <v>26</v>
@@ -2939,23 +2963,23 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B143" t="s">
         <v>26</v>
@@ -2963,7 +2987,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B144" t="s">
         <v>26</v>
@@ -2971,15 +2995,15 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -2987,7 +3011,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -2995,7 +3019,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B148" t="s">
         <v>26</v>
@@ -3003,7 +3027,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B149" t="s">
         <v>26</v>
@@ -3011,15 +3035,15 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -3027,7 +3051,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -3035,15 +3059,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -3051,7 +3075,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B155" t="s">
         <v>26</v>
@@ -3059,23 +3083,23 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B157" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -3083,7 +3107,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -3091,7 +3115,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B160" t="s">
         <v>34</v>
@@ -3099,23 +3123,23 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B161" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B162" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B163" t="s">
         <v>26</v>
@@ -3123,7 +3147,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
@@ -3131,15 +3155,15 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B166" t="s">
         <v>34</v>
@@ -3147,7 +3171,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -3155,7 +3179,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B168" t="s">
         <v>37</v>
@@ -3163,15 +3187,15 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B169" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B170" t="s">
         <v>37</v>
@@ -3179,7 +3203,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B171" t="s">
         <v>37</v>
@@ -3187,15 +3211,15 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B172" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B173" t="s">
         <v>26</v>
@@ -3203,15 +3227,15 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B174" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B175" t="s">
         <v>34</v>
@@ -3219,7 +3243,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B176" t="s">
         <v>34</v>
@@ -3227,15 +3251,15 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B177" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B178" t="s">
         <v>26</v>
@@ -3243,7 +3267,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B179" t="s">
         <v>37</v>
@@ -3251,7 +3275,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B180" t="s">
         <v>37</v>
@@ -3259,15 +3283,15 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B181" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B182" t="s">
         <v>37</v>
@@ -3275,7 +3299,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
@@ -3283,7 +3307,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B184" t="s">
         <v>34</v>
@@ -3291,23 +3315,23 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -3315,95 +3339,95 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B191" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B193" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -3411,66 +3435,66 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B200" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B205" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B206" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B207" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3478,7 +3502,7 @@
         <v>225</v>
       </c>
       <c r="B208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3486,7 +3510,7 @@
         <v>226</v>
       </c>
       <c r="B209" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3494,7 +3518,7 @@
         <v>227</v>
       </c>
       <c r="B210" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3502,7 +3526,7 @@
         <v>228</v>
       </c>
       <c r="B211" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3510,7 +3534,7 @@
         <v>229</v>
       </c>
       <c r="B212" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3518,7 +3542,7 @@
         <v>230</v>
       </c>
       <c r="B213" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3526,7 +3550,7 @@
         <v>231</v>
       </c>
       <c r="B214" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,7 +3558,7 @@
         <v>232</v>
       </c>
       <c r="B215" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3542,7 +3566,7 @@
         <v>233</v>
       </c>
       <c r="B216" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3550,7 +3574,7 @@
         <v>234</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3558,7 +3582,7 @@
         <v>235</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3574,7 +3598,7 @@
         <v>237</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3582,7 +3606,7 @@
         <v>238</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3590,7 +3614,7 @@
         <v>239</v>
       </c>
       <c r="B222" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3598,7 +3622,7 @@
         <v>240</v>
       </c>
       <c r="B223" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3614,7 +3638,7 @@
         <v>242</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3622,7 +3646,7 @@
         <v>243</v>
       </c>
       <c r="B226" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3630,7 +3654,7 @@
         <v>244</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3638,7 +3662,7 @@
         <v>245</v>
       </c>
       <c r="B228" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3646,7 +3670,7 @@
         <v>246</v>
       </c>
       <c r="B229" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3662,7 +3686,7 @@
         <v>248</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3678,7 +3702,7 @@
         <v>250</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3686,7 +3710,7 @@
         <v>251</v>
       </c>
       <c r="B234" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3710,7 +3734,7 @@
         <v>254</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3726,7 +3750,7 @@
         <v>256</v>
       </c>
       <c r="B239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3734,7 +3758,7 @@
         <v>257</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3742,7 +3766,7 @@
         <v>258</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3750,7 +3774,7 @@
         <v>259</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3782,7 +3806,7 @@
         <v>263</v>
       </c>
       <c r="B246" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3790,7 +3814,7 @@
         <v>264</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3798,7 +3822,7 @@
         <v>265</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3806,7 +3830,7 @@
         <v>266</v>
       </c>
       <c r="B249" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3822,7 +3846,7 @@
         <v>268</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3838,7 +3862,7 @@
         <v>270</v>
       </c>
       <c r="B253" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3846,7 +3870,7 @@
         <v>271</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3878,7 +3902,7 @@
         <v>275</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3902,7 +3926,7 @@
         <v>278</v>
       </c>
       <c r="B261" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3918,7 +3942,7 @@
         <v>280</v>
       </c>
       <c r="B263" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3926,7 +3950,7 @@
         <v>281</v>
       </c>
       <c r="B264" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3934,7 +3958,7 @@
         <v>282</v>
       </c>
       <c r="B265" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3942,7 +3966,7 @@
         <v>283</v>
       </c>
       <c r="B266" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3950,7 +3974,7 @@
         <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3958,7 +3982,7 @@
         <v>285</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3966,7 +3990,7 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3974,7 +3998,7 @@
         <v>287</v>
       </c>
       <c r="B270" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3982,7 +4006,7 @@
         <v>288</v>
       </c>
       <c r="B271" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3990,7 +4014,7 @@
         <v>289</v>
       </c>
       <c r="B272" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3998,7 +4022,7 @@
         <v>290</v>
       </c>
       <c r="B273" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4006,7 +4030,7 @@
         <v>291</v>
       </c>
       <c r="B274" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4014,7 +4038,7 @@
         <v>292</v>
       </c>
       <c r="B275" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4022,7 +4046,7 @@
         <v>293</v>
       </c>
       <c r="B276" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4038,127 +4062,127 @@
         <v>296</v>
       </c>
       <c r="B278" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>297</v>
+      </c>
+      <c r="B279" t="s">
         <v>298</v>
-      </c>
-      <c r="B279" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>299</v>
+      </c>
+      <c r="B280" t="s">
         <v>300</v>
-      </c>
-      <c r="B280" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>301</v>
+      </c>
+      <c r="B281" t="s">
         <v>302</v>
-      </c>
-      <c r="B281" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B282" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B283" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B284" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B285" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B286" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B287" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B288" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B289" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B290" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>313</v>
+      </c>
+      <c r="B291" t="s">
         <v>314</v>
-      </c>
-      <c r="B291" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B292" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>316</v>
+      </c>
+      <c r="B293" t="s">
         <v>317</v>
-      </c>
-      <c r="B293" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4166,7 +4190,7 @@
         <v>318</v>
       </c>
       <c r="B294" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4174,7 +4198,7 @@
         <v>319</v>
       </c>
       <c r="B295" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4182,7 +4206,7 @@
         <v>320</v>
       </c>
       <c r="B296" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4190,7 +4214,7 @@
         <v>321</v>
       </c>
       <c r="B297" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4198,7 +4222,7 @@
         <v>322</v>
       </c>
       <c r="B298" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4206,7 +4230,7 @@
         <v>323</v>
       </c>
       <c r="B299" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4214,7 +4238,7 @@
         <v>324</v>
       </c>
       <c r="B300" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4222,7 +4246,7 @@
         <v>325</v>
       </c>
       <c r="B301" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4230,7 +4254,7 @@
         <v>326</v>
       </c>
       <c r="B302" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4246,7 +4270,7 @@
         <v>329</v>
       </c>
       <c r="B304" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4262,7 +4286,7 @@
         <v>331</v>
       </c>
       <c r="B306" t="s">
-        <v>328</v>
+        <v>112</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4270,7 +4294,7 @@
         <v>332</v>
       </c>
       <c r="B307" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4278,7 +4302,7 @@
         <v>333</v>
       </c>
       <c r="B308" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4286,7 +4310,7 @@
         <v>334</v>
       </c>
       <c r="B309" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4310,7 +4334,7 @@
         <v>337</v>
       </c>
       <c r="B312" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4318,7 +4342,7 @@
         <v>338</v>
       </c>
       <c r="B313" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4334,7 +4358,7 @@
         <v>340</v>
       </c>
       <c r="B315" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4342,7 +4366,7 @@
         <v>341</v>
       </c>
       <c r="B316" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4350,7 +4374,7 @@
         <v>342</v>
       </c>
       <c r="B317" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4358,7 +4382,7 @@
         <v>343</v>
       </c>
       <c r="B318" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4366,7 +4390,7 @@
         <v>344</v>
       </c>
       <c r="B319" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4374,7 +4398,7 @@
         <v>345</v>
       </c>
       <c r="B320" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4382,7 +4406,7 @@
         <v>346</v>
       </c>
       <c r="B321" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4390,7 +4414,7 @@
         <v>347</v>
       </c>
       <c r="B322" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4398,7 +4422,7 @@
         <v>348</v>
       </c>
       <c r="B323" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4406,7 +4430,7 @@
         <v>349</v>
       </c>
       <c r="B324" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4414,7 +4438,7 @@
         <v>350</v>
       </c>
       <c r="B325" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4422,7 +4446,7 @@
         <v>351</v>
       </c>
       <c r="B326" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4430,7 +4454,7 @@
         <v>352</v>
       </c>
       <c r="B327" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4438,7 +4462,7 @@
         <v>353</v>
       </c>
       <c r="B328" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4446,7 +4470,7 @@
         <v>354</v>
       </c>
       <c r="B329" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4454,7 +4478,7 @@
         <v>355</v>
       </c>
       <c r="B330" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4478,7 +4502,7 @@
         <v>358</v>
       </c>
       <c r="B333" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4486,7 +4510,7 @@
         <v>359</v>
       </c>
       <c r="B334" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4494,7 +4518,7 @@
         <v>360</v>
       </c>
       <c r="B335" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4502,7 +4526,7 @@
         <v>361</v>
       </c>
       <c r="B336" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4510,7 +4534,7 @@
         <v>362</v>
       </c>
       <c r="B337" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4518,7 +4542,7 @@
         <v>363</v>
       </c>
       <c r="B338" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4526,7 +4550,7 @@
         <v>364</v>
       </c>
       <c r="B339" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -4534,7 +4558,7 @@
         <v>365</v>
       </c>
       <c r="B340" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -4542,7 +4566,7 @@
         <v>366</v>
       </c>
       <c r="B341" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4550,7 +4574,7 @@
         <v>367</v>
       </c>
       <c r="B342" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -4558,7 +4582,7 @@
         <v>368</v>
       </c>
       <c r="B343" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -4566,7 +4590,7 @@
         <v>369</v>
       </c>
       <c r="B344" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4574,7 +4598,7 @@
         <v>370</v>
       </c>
       <c r="B345" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -4582,7 +4606,7 @@
         <v>371</v>
       </c>
       <c r="B346" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4590,7 +4614,7 @@
         <v>372</v>
       </c>
       <c r="B347" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4598,7 +4622,7 @@
         <v>373</v>
       </c>
       <c r="B348" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4606,7 +4630,7 @@
         <v>374</v>
       </c>
       <c r="B349" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -4614,7 +4638,7 @@
         <v>375</v>
       </c>
       <c r="B350" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4622,7 +4646,7 @@
         <v>376</v>
       </c>
       <c r="B351" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4630,7 +4654,7 @@
         <v>377</v>
       </c>
       <c r="B352" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4638,7 +4662,7 @@
         <v>378</v>
       </c>
       <c r="B353" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4646,7 +4670,7 @@
         <v>379</v>
       </c>
       <c r="B354" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4654,7 +4678,7 @@
         <v>380</v>
       </c>
       <c r="B355" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4662,7 +4686,7 @@
         <v>381</v>
       </c>
       <c r="B356" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -4670,7 +4694,7 @@
         <v>382</v>
       </c>
       <c r="B357" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4702,7 +4726,7 @@
         <v>386</v>
       </c>
       <c r="B361" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -4710,7 +4734,7 @@
         <v>387</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -4718,7 +4742,7 @@
         <v>388</v>
       </c>
       <c r="B363" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4734,7 +4758,7 @@
         <v>390</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4742,7 +4766,7 @@
         <v>391</v>
       </c>
       <c r="B366" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -4750,7 +4774,7 @@
         <v>392</v>
       </c>
       <c r="B367" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -4758,7 +4782,7 @@
         <v>393</v>
       </c>
       <c r="B368" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4766,7 +4790,7 @@
         <v>394</v>
       </c>
       <c r="B369" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -4774,7 +4798,7 @@
         <v>395</v>
       </c>
       <c r="B370" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -4790,7 +4814,7 @@
         <v>397</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4798,7 +4822,7 @@
         <v>398</v>
       </c>
       <c r="B373" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4814,7 +4838,7 @@
         <v>400</v>
       </c>
       <c r="B375" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4838,7 +4862,7 @@
         <v>403</v>
       </c>
       <c r="B378" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4862,7 +4886,7 @@
         <v>406</v>
       </c>
       <c r="B381" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -4886,7 +4910,7 @@
         <v>409</v>
       </c>
       <c r="B384" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4910,7 +4934,7 @@
         <v>413</v>
       </c>
       <c r="B387" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -4934,7 +4958,7 @@
         <v>416</v>
       </c>
       <c r="B390" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4950,7 +4974,7 @@
         <v>418</v>
       </c>
       <c r="B392" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -4958,7 +4982,7 @@
         <v>419</v>
       </c>
       <c r="B393" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -4974,7 +4998,7 @@
         <v>421</v>
       </c>
       <c r="B395" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -4990,7 +5014,7 @@
         <v>424</v>
       </c>
       <c r="B397" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5030,7 +5054,7 @@
         <v>429</v>
       </c>
       <c r="B402" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5046,7 +5070,7 @@
         <v>431</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5054,7 +5078,7 @@
         <v>432</v>
       </c>
       <c r="B405" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5078,20 +5102,20 @@
         <v>435</v>
       </c>
       <c r="B408" t="s">
-        <v>436</v>
+        <v>61</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B409" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B410" t="s">
         <v>412</v>
@@ -5099,7 +5123,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B411" t="s">
         <v>26</v>
@@ -5107,7 +5131,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B412" t="s">
         <v>5</v>
@@ -5115,7 +5139,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B413" t="s">
         <v>328</v>
@@ -5123,39 +5147,39 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B414" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B415" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B416" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B417" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -5163,15 +5187,15 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B419" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B420" t="s">
         <v>37</v>
@@ -5179,23 +5203,23 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B421" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B422" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B423" t="s">
         <v>26</v>
@@ -5203,15 +5227,15 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B424" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B425" t="s">
         <v>37</v>
@@ -5219,7 +5243,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B426" t="s">
         <v>40</v>
@@ -5227,18 +5251,18 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B427" t="s">
-        <v>436</v>
+        <v>61</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>455</v>
+      </c>
+      <c r="B428" t="s">
         <v>456</v>
-      </c>
-      <c r="B428" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -5246,7 +5270,7 @@
         <v>457</v>
       </c>
       <c r="B429" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -5262,13 +5286,60 @@
         <v>460</v>
       </c>
       <c r="B431" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
         <v>461</v>
+      </c>
+      <c r="B432" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>463</v>
+      </c>
+      <c r="B433" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>465</v>
+      </c>
+      <c r="B434" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>466</v>
+      </c>
+      <c r="B435" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>467</v>
+      </c>
+      <c r="B436" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>469</v>
+      </c>
+      <c r="B437" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Compensation Plans.xlsx
+++ b/US/data/CBS/NFIB/Compensation Plans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF5D4D97-8F64-4A71-9DAC-F47612560946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A37BD0B-D5FA-4F53-9F83-141C24A14DC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="471">
   <si>
     <t>Month/Year</t>
   </si>
@@ -49,12 +49,12 @@
     <t>1986/5/1</t>
   </si>
   <si>
+    <t>1986/6/1</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>1986/6/1</t>
-  </si>
-  <si>
     <t>1986/7/1</t>
   </si>
   <si>
@@ -142,423 +142,423 @@
     <t>1988/5/1</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1988/6/1</t>
+  </si>
+  <si>
+    <t>1988/7/1</t>
+  </si>
+  <si>
+    <t>1988/8/1</t>
+  </si>
+  <si>
+    <t>1988/9/1</t>
+  </si>
+  <si>
+    <t>1988/10/1</t>
+  </si>
+  <si>
+    <t>1988/11/1</t>
+  </si>
+  <si>
+    <t>1988/12/1</t>
+  </si>
+  <si>
+    <t>1989/1/1</t>
+  </si>
+  <si>
+    <t>1989/2/1</t>
+  </si>
+  <si>
+    <t>1989/3/1</t>
+  </si>
+  <si>
+    <t>1989/4/1</t>
+  </si>
+  <si>
+    <t>1989/5/1</t>
+  </si>
+  <si>
+    <t>1989/6/1</t>
+  </si>
+  <si>
+    <t>1989/7/1</t>
+  </si>
+  <si>
+    <t>1989/8/1</t>
+  </si>
+  <si>
+    <t>1989/9/1</t>
+  </si>
+  <si>
+    <t>1989/10/1</t>
+  </si>
+  <si>
+    <t>1989/11/1</t>
+  </si>
+  <si>
+    <t>1989/12/1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1990/1/1</t>
+  </si>
+  <si>
+    <t>1990/2/1</t>
+  </si>
+  <si>
+    <t>1990/3/1</t>
+  </si>
+  <si>
+    <t>1990/4/1</t>
+  </si>
+  <si>
+    <t>1990/5/1</t>
+  </si>
+  <si>
+    <t>1990/6/1</t>
+  </si>
+  <si>
+    <t>1990/7/1</t>
+  </si>
+  <si>
+    <t>1990/8/1</t>
+  </si>
+  <si>
+    <t>1990/9/1</t>
+  </si>
+  <si>
+    <t>1990/10/1</t>
+  </si>
+  <si>
+    <t>1990/11/1</t>
+  </si>
+  <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
+    <t>1991/6/1</t>
+  </si>
+  <si>
+    <t>1991/7/1</t>
+  </si>
+  <si>
+    <t>1991/8/1</t>
+  </si>
+  <si>
+    <t>1991/9/1</t>
+  </si>
+  <si>
+    <t>1991/10/1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1992/4/1</t>
+  </si>
+  <si>
+    <t>1992/5/1</t>
+  </si>
+  <si>
+    <t>1992/6/1</t>
+  </si>
+  <si>
+    <t>1992/7/1</t>
+  </si>
+  <si>
+    <t>1992/8/1</t>
+  </si>
+  <si>
+    <t>1992/9/1</t>
+  </si>
+  <si>
+    <t>1992/10/1</t>
+  </si>
+  <si>
+    <t>1992/11/1</t>
+  </si>
+  <si>
+    <t>1992/12/1</t>
+  </si>
+  <si>
+    <t>1993/1/1</t>
+  </si>
+  <si>
+    <t>1993/2/1</t>
+  </si>
+  <si>
+    <t>1993/3/1</t>
+  </si>
+  <si>
+    <t>1993/4/1</t>
+  </si>
+  <si>
+    <t>1993/5/1</t>
+  </si>
+  <si>
+    <t>1993/6/1</t>
+  </si>
+  <si>
+    <t>1993/7/1</t>
+  </si>
+  <si>
+    <t>1993/8/1</t>
+  </si>
+  <si>
+    <t>1993/9/1</t>
+  </si>
+  <si>
+    <t>1993/10/1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1993/11/1</t>
+  </si>
+  <si>
+    <t>1993/12/1</t>
+  </si>
+  <si>
+    <t>1994/1/1</t>
+  </si>
+  <si>
+    <t>1994/2/1</t>
+  </si>
+  <si>
+    <t>1994/3/1</t>
+  </si>
+  <si>
+    <t>1994/4/1</t>
+  </si>
+  <si>
+    <t>1994/5/1</t>
+  </si>
+  <si>
+    <t>1994/6/1</t>
+  </si>
+  <si>
+    <t>1994/7/1</t>
+  </si>
+  <si>
+    <t>1994/8/1</t>
+  </si>
+  <si>
+    <t>1994/9/1</t>
+  </si>
+  <si>
+    <t>1994/10/1</t>
+  </si>
+  <si>
+    <t>1994/11/1</t>
+  </si>
+  <si>
+    <t>1994/12/1</t>
+  </si>
+  <si>
+    <t>1995/1/1</t>
+  </si>
+  <si>
+    <t>1995/2/1</t>
+  </si>
+  <si>
+    <t>1995/3/1</t>
+  </si>
+  <si>
+    <t>1995/4/1</t>
+  </si>
+  <si>
+    <t>1995/5/1</t>
+  </si>
+  <si>
+    <t>1995/6/1</t>
+  </si>
+  <si>
+    <t>1995/7/1</t>
+  </si>
+  <si>
+    <t>1995/8/1</t>
+  </si>
+  <si>
+    <t>1995/9/1</t>
+  </si>
+  <si>
+    <t>1995/10/1</t>
+  </si>
+  <si>
+    <t>1995/11/1</t>
+  </si>
+  <si>
+    <t>1995/12/1</t>
+  </si>
+  <si>
+    <t>1996/1/1</t>
+  </si>
+  <si>
+    <t>1996/2/1</t>
+  </si>
+  <si>
+    <t>1996/3/1</t>
+  </si>
+  <si>
+    <t>1996/4/1</t>
+  </si>
+  <si>
+    <t>1996/5/1</t>
+  </si>
+  <si>
+    <t>1996/6/1</t>
+  </si>
+  <si>
+    <t>1996/7/1</t>
+  </si>
+  <si>
+    <t>1996/8/1</t>
+  </si>
+  <si>
+    <t>1996/9/1</t>
+  </si>
+  <si>
+    <t>1996/10/1</t>
+  </si>
+  <si>
+    <t>1996/11/1</t>
+  </si>
+  <si>
+    <t>1996/12/1</t>
+  </si>
+  <si>
+    <t>1997/1/1</t>
+  </si>
+  <si>
+    <t>1997/2/1</t>
+  </si>
+  <si>
+    <t>1997/3/1</t>
+  </si>
+  <si>
+    <t>1997/4/1</t>
+  </si>
+  <si>
+    <t>1997/5/1</t>
+  </si>
+  <si>
+    <t>1997/6/1</t>
+  </si>
+  <si>
+    <t>1997/7/1</t>
+  </si>
+  <si>
+    <t>1997/8/1</t>
+  </si>
+  <si>
+    <t>1997/9/1</t>
+  </si>
+  <si>
+    <t>1997/10/1</t>
+  </si>
+  <si>
+    <t>1997/11/1</t>
+  </si>
+  <si>
+    <t>1997/12/1</t>
+  </si>
+  <si>
+    <t>1998/1/1</t>
+  </si>
+  <si>
+    <t>1998/2/1</t>
+  </si>
+  <si>
+    <t>1998/3/1</t>
+  </si>
+  <si>
+    <t>1998/4/1</t>
+  </si>
+  <si>
+    <t>1998/5/1</t>
+  </si>
+  <si>
+    <t>1998/6/1</t>
+  </si>
+  <si>
+    <t>1998/7/1</t>
+  </si>
+  <si>
+    <t>1998/8/1</t>
+  </si>
+  <si>
+    <t>1998/9/1</t>
+  </si>
+  <si>
+    <t>1998/10/1</t>
+  </si>
+  <si>
+    <t>1998/11/1</t>
+  </si>
+  <si>
+    <t>1998/12/1</t>
+  </si>
+  <si>
+    <t>1999/1/1</t>
+  </si>
+  <si>
+    <t>1999/2/1</t>
+  </si>
+  <si>
+    <t>1999/3/1</t>
+  </si>
+  <si>
+    <t>1999/4/1</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>1988/6/1</t>
-  </si>
-  <si>
-    <t>1988/7/1</t>
-  </si>
-  <si>
-    <t>1988/8/1</t>
-  </si>
-  <si>
-    <t>1988/9/1</t>
-  </si>
-  <si>
-    <t>1988/10/1</t>
-  </si>
-  <si>
-    <t>1988/11/1</t>
-  </si>
-  <si>
-    <t>1988/12/1</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1989/1/1</t>
-  </si>
-  <si>
-    <t>1989/2/1</t>
-  </si>
-  <si>
-    <t>1989/3/1</t>
-  </si>
-  <si>
-    <t>1989/4/1</t>
-  </si>
-  <si>
-    <t>1989/5/1</t>
-  </si>
-  <si>
-    <t>1989/6/1</t>
-  </si>
-  <si>
-    <t>1989/7/1</t>
-  </si>
-  <si>
-    <t>1989/8/1</t>
-  </si>
-  <si>
-    <t>1989/9/1</t>
-  </si>
-  <si>
-    <t>1989/10/1</t>
-  </si>
-  <si>
-    <t>1989/11/1</t>
-  </si>
-  <si>
-    <t>1989/12/1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1990/1/1</t>
-  </si>
-  <si>
-    <t>1990/2/1</t>
-  </si>
-  <si>
-    <t>1990/3/1</t>
-  </si>
-  <si>
-    <t>1990/4/1</t>
-  </si>
-  <si>
-    <t>1990/5/1</t>
-  </si>
-  <si>
-    <t>1990/6/1</t>
-  </si>
-  <si>
-    <t>1990/7/1</t>
-  </si>
-  <si>
-    <t>1990/8/1</t>
-  </si>
-  <si>
-    <t>1990/9/1</t>
-  </si>
-  <si>
-    <t>1990/10/1</t>
-  </si>
-  <si>
-    <t>1990/11/1</t>
-  </si>
-  <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
-    <t>1991/6/1</t>
-  </si>
-  <si>
-    <t>1991/7/1</t>
-  </si>
-  <si>
-    <t>1991/8/1</t>
-  </si>
-  <si>
-    <t>1991/9/1</t>
-  </si>
-  <si>
-    <t>1991/10/1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1992/4/1</t>
-  </si>
-  <si>
-    <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>1992/6/1</t>
-  </si>
-  <si>
-    <t>1992/7/1</t>
-  </si>
-  <si>
-    <t>1992/8/1</t>
-  </si>
-  <si>
-    <t>1992/9/1</t>
-  </si>
-  <si>
-    <t>1992/10/1</t>
-  </si>
-  <si>
-    <t>1992/11/1</t>
-  </si>
-  <si>
-    <t>1992/12/1</t>
-  </si>
-  <si>
-    <t>1993/1/1</t>
-  </si>
-  <si>
-    <t>1993/2/1</t>
-  </si>
-  <si>
-    <t>1993/3/1</t>
-  </si>
-  <si>
-    <t>1993/4/1</t>
-  </si>
-  <si>
-    <t>1993/5/1</t>
-  </si>
-  <si>
-    <t>1993/6/1</t>
-  </si>
-  <si>
-    <t>1993/7/1</t>
-  </si>
-  <si>
-    <t>1993/8/1</t>
-  </si>
-  <si>
-    <t>1993/9/1</t>
-  </si>
-  <si>
-    <t>1993/10/1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1993/11/1</t>
-  </si>
-  <si>
-    <t>1993/12/1</t>
-  </si>
-  <si>
-    <t>1994/1/1</t>
-  </si>
-  <si>
-    <t>1994/2/1</t>
-  </si>
-  <si>
-    <t>1994/3/1</t>
-  </si>
-  <si>
-    <t>1994/4/1</t>
-  </si>
-  <si>
-    <t>1994/5/1</t>
-  </si>
-  <si>
-    <t>1994/6/1</t>
-  </si>
-  <si>
-    <t>1994/7/1</t>
-  </si>
-  <si>
-    <t>1994/8/1</t>
-  </si>
-  <si>
-    <t>1994/9/1</t>
-  </si>
-  <si>
-    <t>1994/10/1</t>
-  </si>
-  <si>
-    <t>1994/11/1</t>
-  </si>
-  <si>
-    <t>1994/12/1</t>
-  </si>
-  <si>
-    <t>1995/1/1</t>
-  </si>
-  <si>
-    <t>1995/2/1</t>
-  </si>
-  <si>
-    <t>1995/3/1</t>
-  </si>
-  <si>
-    <t>1995/4/1</t>
-  </si>
-  <si>
-    <t>1995/5/1</t>
-  </si>
-  <si>
-    <t>1995/6/1</t>
-  </si>
-  <si>
-    <t>1995/7/1</t>
-  </si>
-  <si>
-    <t>1995/8/1</t>
-  </si>
-  <si>
-    <t>1995/9/1</t>
-  </si>
-  <si>
-    <t>1995/10/1</t>
-  </si>
-  <si>
-    <t>1995/11/1</t>
-  </si>
-  <si>
-    <t>1995/12/1</t>
-  </si>
-  <si>
-    <t>1996/1/1</t>
-  </si>
-  <si>
-    <t>1996/2/1</t>
-  </si>
-  <si>
-    <t>1996/3/1</t>
-  </si>
-  <si>
-    <t>1996/4/1</t>
-  </si>
-  <si>
-    <t>1996/5/1</t>
-  </si>
-  <si>
-    <t>1996/6/1</t>
-  </si>
-  <si>
-    <t>1996/7/1</t>
-  </si>
-  <si>
-    <t>1996/8/1</t>
-  </si>
-  <si>
-    <t>1996/9/1</t>
-  </si>
-  <si>
-    <t>1996/10/1</t>
-  </si>
-  <si>
-    <t>1996/11/1</t>
-  </si>
-  <si>
-    <t>1996/12/1</t>
-  </si>
-  <si>
-    <t>1997/1/1</t>
-  </si>
-  <si>
-    <t>1997/2/1</t>
-  </si>
-  <si>
-    <t>1997/3/1</t>
-  </si>
-  <si>
-    <t>1997/4/1</t>
-  </si>
-  <si>
-    <t>1997/5/1</t>
-  </si>
-  <si>
-    <t>1997/6/1</t>
-  </si>
-  <si>
-    <t>1997/7/1</t>
-  </si>
-  <si>
-    <t>1997/8/1</t>
-  </si>
-  <si>
-    <t>1997/9/1</t>
-  </si>
-  <si>
-    <t>1997/10/1</t>
-  </si>
-  <si>
-    <t>1997/11/1</t>
-  </si>
-  <si>
-    <t>1997/12/1</t>
-  </si>
-  <si>
-    <t>1998/1/1</t>
-  </si>
-  <si>
-    <t>1998/2/1</t>
-  </si>
-  <si>
-    <t>1998/3/1</t>
-  </si>
-  <si>
-    <t>1998/4/1</t>
-  </si>
-  <si>
-    <t>1998/5/1</t>
-  </si>
-  <si>
-    <t>1998/6/1</t>
-  </si>
-  <si>
-    <t>1998/7/1</t>
-  </si>
-  <si>
-    <t>1998/8/1</t>
-  </si>
-  <si>
-    <t>1998/9/1</t>
-  </si>
-  <si>
-    <t>1998/10/1</t>
-  </si>
-  <si>
-    <t>1998/11/1</t>
-  </si>
-  <si>
-    <t>1998/12/1</t>
-  </si>
-  <si>
-    <t>1999/1/1</t>
-  </si>
-  <si>
-    <t>1999/2/1</t>
-  </si>
-  <si>
-    <t>1999/3/1</t>
-  </si>
-  <si>
-    <t>1999/4/1</t>
-  </si>
-  <si>
     <t>1999/5/1</t>
   </si>
   <si>
@@ -934,6 +934,9 @@
     <t>2009/5/1</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2009/6/1</t>
   </si>
   <si>
@@ -955,9 +958,6 @@
     <t>2009/12/1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2010/1/1</t>
   </si>
   <si>
@@ -1430,6 +1430,9 @@
   </si>
   <si>
     <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1886,15 +1889,15 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1969,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1977,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1985,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,7 +2057,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,12 +2137,12 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -2147,7 +2150,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -2155,7 +2158,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -2163,7 +2166,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -2171,15 +2174,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -2187,7 +2190,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -2195,7 +2198,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -2203,7 +2206,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2211,7 +2214,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -2219,7 +2222,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -2227,23 +2230,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
         <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
@@ -2251,7 +2254,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2259,7 +2262,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
@@ -2267,15 +2270,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -2283,7 +2286,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2291,7 +2294,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -2299,7 +2302,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -2307,7 +2310,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -2315,15 +2318,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -2331,7 +2334,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
         <v>17</v>
@@ -2347,15 +2350,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -2363,15 +2366,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
         <v>17</v>
@@ -2387,7 +2390,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
@@ -2395,7 +2398,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
@@ -2403,55 +2406,55 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" t="s">
         <v>83</v>
-      </c>
-      <c r="B71" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="s">
         <v>86</v>
-      </c>
-      <c r="B73" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
         <v>88</v>
-      </c>
-      <c r="B74" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
         <v>91</v>
-      </c>
-      <c r="B76" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
@@ -2459,15 +2462,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
@@ -2475,7 +2478,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -2483,7 +2486,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -2491,7 +2494,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -2499,7 +2502,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
         <v>17</v>
@@ -2507,15 +2510,15 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
         <v>17</v>
@@ -2523,7 +2526,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -2531,7 +2534,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
@@ -2539,87 +2542,87 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" t="s">
         <v>111</v>
-      </c>
-      <c r="B95" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
         <v>17</v>
@@ -2627,7 +2630,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
         <v>17</v>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
         <v>17</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -2651,15 +2654,15 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -2667,7 +2670,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" t="s">
         <v>19</v>
@@ -2675,7 +2678,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
         <v>17</v>
@@ -2683,7 +2686,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
@@ -2691,7 +2694,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
@@ -2699,7 +2702,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s">
         <v>19</v>
@@ -2707,7 +2710,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" t="s">
         <v>17</v>
@@ -2715,7 +2718,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s">
         <v>19</v>
@@ -2723,7 +2726,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -2731,7 +2734,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -2739,7 +2742,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -2747,23 +2750,23 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
         <v>17</v>
@@ -2771,7 +2774,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
         <v>17</v>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
         <v>19</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -2803,7 +2806,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
@@ -2811,7 +2814,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -2819,15 +2822,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2835,23 +2838,23 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -2859,15 +2862,15 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B129" t="s">
         <v>37</v>
@@ -2875,7 +2878,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B130" t="s">
         <v>26</v>
@@ -2883,23 +2886,23 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -2907,23 +2910,23 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B136" t="s">
         <v>26</v>
@@ -2931,23 +2934,23 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -2955,7 +2958,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B140" t="s">
         <v>26</v>
@@ -2963,23 +2966,23 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B142" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
         <v>26</v>
@@ -2987,7 +2990,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B144" t="s">
         <v>26</v>
@@ -2995,7 +2998,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -3003,7 +3006,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -3011,7 +3014,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -3019,7 +3022,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B148" t="s">
         <v>26</v>
@@ -3027,7 +3030,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B149" t="s">
         <v>26</v>
@@ -3035,15 +3038,15 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -3051,7 +3054,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -3059,15 +3062,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B153" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -3075,7 +3078,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B155" t="s">
         <v>26</v>
@@ -3083,15 +3086,15 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B156" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
@@ -3099,7 +3102,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -3107,7 +3110,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -3115,7 +3118,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B160" t="s">
         <v>34</v>
@@ -3123,10 +3126,10 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>177</v>
+      </c>
+      <c r="B161" t="s">
         <v>178</v>
-      </c>
-      <c r="B161" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3134,7 +3137,7 @@
         <v>179</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3214,7 +3217,7 @@
         <v>189</v>
       </c>
       <c r="B172" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3230,7 +3233,7 @@
         <v>191</v>
       </c>
       <c r="B174" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3318,7 +3321,7 @@
         <v>202</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3326,7 +3329,7 @@
         <v>203</v>
       </c>
       <c r="B186" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3366,7 +3369,7 @@
         <v>208</v>
       </c>
       <c r="B191" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3382,7 +3385,7 @@
         <v>210</v>
       </c>
       <c r="B193" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3422,7 +3425,7 @@
         <v>215</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3438,7 +3441,7 @@
         <v>217</v>
       </c>
       <c r="B200" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3478,7 +3481,7 @@
         <v>222</v>
       </c>
       <c r="B205" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3486,7 +3489,7 @@
         <v>223</v>
       </c>
       <c r="B206" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3494,7 +3497,7 @@
         <v>224</v>
       </c>
       <c r="B207" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3510,7 +3513,7 @@
         <v>226</v>
       </c>
       <c r="B209" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3518,7 +3521,7 @@
         <v>227</v>
       </c>
       <c r="B210" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3526,7 +3529,7 @@
         <v>228</v>
       </c>
       <c r="B211" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,7 +3537,7 @@
         <v>229</v>
       </c>
       <c r="B212" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3550,7 +3553,7 @@
         <v>231</v>
       </c>
       <c r="B214" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3558,7 +3561,7 @@
         <v>232</v>
       </c>
       <c r="B215" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3574,7 +3577,7 @@
         <v>234</v>
       </c>
       <c r="B217" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3590,7 +3593,7 @@
         <v>236</v>
       </c>
       <c r="B219" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3614,7 +3617,7 @@
         <v>239</v>
       </c>
       <c r="B222" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3622,7 +3625,7 @@
         <v>240</v>
       </c>
       <c r="B223" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3702,7 +3705,7 @@
         <v>250</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3710,7 +3713,7 @@
         <v>251</v>
       </c>
       <c r="B234" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3734,7 +3737,7 @@
         <v>254</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3774,7 +3777,7 @@
         <v>259</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3806,7 +3809,7 @@
         <v>263</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3822,7 +3825,7 @@
         <v>265</v>
       </c>
       <c r="B248" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3846,7 +3849,7 @@
         <v>268</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3862,7 +3865,7 @@
         <v>270</v>
       </c>
       <c r="B253" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3870,7 +3873,7 @@
         <v>271</v>
       </c>
       <c r="B254" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3902,7 +3905,7 @@
         <v>275</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3974,7 +3977,7 @@
         <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3998,7 +4001,7 @@
         <v>287</v>
       </c>
       <c r="B270" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4014,7 +4017,7 @@
         <v>289</v>
       </c>
       <c r="B272" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4022,7 +4025,7 @@
         <v>290</v>
       </c>
       <c r="B273" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4030,7 +4033,7 @@
         <v>291</v>
       </c>
       <c r="B274" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4038,7 +4041,7 @@
         <v>292</v>
       </c>
       <c r="B275" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4046,7 +4049,7 @@
         <v>293</v>
       </c>
       <c r="B276" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4094,12 +4097,12 @@
         <v>303</v>
       </c>
       <c r="B282" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283" t="s">
         <v>295</v>
@@ -4107,7 +4110,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284" t="s">
         <v>295</v>
@@ -4115,7 +4118,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285" t="s">
         <v>298</v>
@@ -4123,7 +4126,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286" t="s">
         <v>298</v>
@@ -4131,7 +4134,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287" t="s">
         <v>295</v>
@@ -4139,7 +4142,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288" t="s">
         <v>300</v>
@@ -4147,10 +4150,10 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4190,7 +4193,7 @@
         <v>318</v>
       </c>
       <c r="B294" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4270,7 +4273,7 @@
         <v>329</v>
       </c>
       <c r="B304" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4286,7 +4289,7 @@
         <v>331</v>
       </c>
       <c r="B306" t="s">
-        <v>112</v>
+        <v>328</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4294,7 +4297,7 @@
         <v>332</v>
       </c>
       <c r="B307" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4334,7 +4337,7 @@
         <v>337</v>
       </c>
       <c r="B312" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4358,7 +4361,7 @@
         <v>340</v>
       </c>
       <c r="B315" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4366,7 +4369,7 @@
         <v>341</v>
       </c>
       <c r="B316" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4374,7 +4377,7 @@
         <v>342</v>
       </c>
       <c r="B317" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4382,7 +4385,7 @@
         <v>343</v>
       </c>
       <c r="B318" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4390,7 +4393,7 @@
         <v>344</v>
       </c>
       <c r="B319" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4398,7 +4401,7 @@
         <v>345</v>
       </c>
       <c r="B320" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4406,7 +4409,7 @@
         <v>346</v>
       </c>
       <c r="B321" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4414,7 +4417,7 @@
         <v>347</v>
       </c>
       <c r="B322" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4422,7 +4425,7 @@
         <v>348</v>
       </c>
       <c r="B323" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4446,7 +4449,7 @@
         <v>351</v>
       </c>
       <c r="B326" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4454,7 +4457,7 @@
         <v>352</v>
       </c>
       <c r="B327" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4462,7 +4465,7 @@
         <v>353</v>
       </c>
       <c r="B328" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4470,7 +4473,7 @@
         <v>354</v>
       </c>
       <c r="B329" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4478,7 +4481,7 @@
         <v>355</v>
       </c>
       <c r="B330" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4494,7 +4497,7 @@
         <v>357</v>
       </c>
       <c r="B332" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4502,7 +4505,7 @@
         <v>358</v>
       </c>
       <c r="B333" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4518,7 +4521,7 @@
         <v>360</v>
       </c>
       <c r="B335" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4542,7 +4545,7 @@
         <v>363</v>
       </c>
       <c r="B338" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4574,7 +4577,7 @@
         <v>367</v>
       </c>
       <c r="B342" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -4614,7 +4617,7 @@
         <v>372</v>
       </c>
       <c r="B347" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4630,7 +4633,7 @@
         <v>374</v>
       </c>
       <c r="B349" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -4670,7 +4673,7 @@
         <v>379</v>
       </c>
       <c r="B354" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4678,7 +4681,7 @@
         <v>380</v>
       </c>
       <c r="B355" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4742,7 +4745,7 @@
         <v>388</v>
       </c>
       <c r="B363" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4766,7 +4769,7 @@
         <v>391</v>
       </c>
       <c r="B366" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -4838,7 +4841,7 @@
         <v>400</v>
       </c>
       <c r="B375" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4862,7 +4865,7 @@
         <v>403</v>
       </c>
       <c r="B378" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4910,7 +4913,7 @@
         <v>409</v>
       </c>
       <c r="B384" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4918,7 +4921,7 @@
         <v>410</v>
       </c>
       <c r="B385" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -4934,7 +4937,7 @@
         <v>413</v>
       </c>
       <c r="B387" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -4958,7 +4961,7 @@
         <v>416</v>
       </c>
       <c r="B390" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4974,7 +4977,7 @@
         <v>418</v>
       </c>
       <c r="B392" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -4982,7 +4985,7 @@
         <v>419</v>
       </c>
       <c r="B393" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -4998,7 +5001,7 @@
         <v>421</v>
       </c>
       <c r="B395" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5014,7 +5017,7 @@
         <v>424</v>
       </c>
       <c r="B397" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5054,7 +5057,7 @@
         <v>429</v>
       </c>
       <c r="B402" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5070,7 +5073,7 @@
         <v>431</v>
       </c>
       <c r="B404" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5102,7 +5105,7 @@
         <v>435</v>
       </c>
       <c r="B408" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5110,7 +5113,7 @@
         <v>436</v>
       </c>
       <c r="B409" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5150,7 +5153,7 @@
         <v>441</v>
       </c>
       <c r="B414" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5190,7 +5193,7 @@
         <v>446</v>
       </c>
       <c r="B419" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5214,7 +5217,7 @@
         <v>449</v>
       </c>
       <c r="B422" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5230,7 +5233,7 @@
         <v>451</v>
       </c>
       <c r="B424" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5254,7 +5257,7 @@
         <v>454</v>
       </c>
       <c r="B427" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -5318,7 +5321,7 @@
         <v>466</v>
       </c>
       <c r="B435" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -5335,11 +5338,20 @@
       </c>
       <c r="B437" t="s">
         <v>456</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>470</v>
+      </c>
+      <c r="B438" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>